--- a/results/MVSE/freebase/MVSE_freebase<l01>AllRes_57.14.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l01>AllRes_57.14.xlsx
@@ -539,7 +539,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -569,7 +573,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
@@ -665,7 +671,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_05_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -681,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -711,7 +723,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
@@ -807,7 +821,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_34_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -823,7 +839,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -876,7 +896,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_19_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -892,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -945,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_41_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1018,7 +1046,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_47_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1034,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1087,7 +1121,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_23_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1160,7 +1196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_30_32', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1210,7 +1248,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
@@ -1283,7 +1323,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
@@ -1322,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1375,7 +1421,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_58_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1448,7 +1496,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_10_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1521,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_21_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1537,7 +1589,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1567,7 +1623,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
@@ -1640,7 +1698,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
@@ -1679,7 +1739,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1709,7 +1773,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
@@ -1748,7 +1814,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1778,7 +1848,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
@@ -1851,7 +1923,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
@@ -1947,7 +2021,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_45_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1963,7 +2039,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1993,7 +2073,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
@@ -2032,7 +2114,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -2085,7 +2171,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_30_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2135,7 +2223,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
@@ -2174,7 +2264,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -2227,7 +2321,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_16_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>4096</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
